--- a/ex/견적서.xlsx
+++ b/ex/견적서.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29602"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE16315-1A10-4EBF-8C50-ADB02A4C8B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64D68E3-51D1-48C7-837D-8BBBB5AD1853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -587,81 +587,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -691,19 +616,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -782,179 +694,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1234,17 +973,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1255,11 +1007,9 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1267,115 +1017,81 @@
         <color indexed="9"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,13 +1175,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1474,31 +1190,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,7 +1223,7 @@
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,267 +1233,213 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2185,131 +1847,131 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="C11:K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="3" style="15" customWidth="1"/>
-    <col min="11" max="11" width="0.109375" style="15" customWidth="1"/>
-    <col min="12" max="14" width="3" style="15" customWidth="1"/>
-    <col min="15" max="15" width="3" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="22" width="3" style="15" customWidth="1"/>
-    <col min="23" max="23" width="0.33203125" style="15" customWidth="1"/>
-    <col min="24" max="25" width="3" style="15" customWidth="1"/>
-    <col min="26" max="26" width="3" style="15" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="3" style="15" customWidth="1"/>
-    <col min="28" max="28" width="3.21875" style="15" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="3" style="15" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" style="15" customWidth="1"/>
-    <col min="33" max="256" width="3" style="15" customWidth="1"/>
-    <col min="257" max="16384" width="8.77734375" style="15"/>
+    <col min="1" max="10" width="3" style="8" customWidth="1"/>
+    <col min="11" max="11" width="0.109375" style="8" customWidth="1"/>
+    <col min="12" max="14" width="3" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="22" width="3" style="8" customWidth="1"/>
+    <col min="23" max="23" width="0.33203125" style="8" customWidth="1"/>
+    <col min="24" max="25" width="3" style="8" customWidth="1"/>
+    <col min="26" max="26" width="3" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="3" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.21875" style="8" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="3" style="8" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" style="8" customWidth="1"/>
+    <col min="33" max="256" width="3" style="8" customWidth="1"/>
+    <col min="257" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="79"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39"/>
     </row>
     <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="82"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="85"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1"/>
@@ -2325,1228 +1987,1230 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="19" t="s">
+      <c r="N4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="69" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="19" t="s">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="69" t="str">
-        <f>LEFT(S4,10)</f>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="48" t="str">
+        <f>LEFT(R4,10)</f>
         <v xml:space="preserve"> 2025-0912</v>
       </c>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="19" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="69" t="s">
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="68"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="19" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="69" t="s">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="19" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="69" t="s">
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="69" t="s">
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="19" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="69" t="s">
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
     </row>
     <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="70" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="71" t="s">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="70" t="s">
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
     </row>
     <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="51"/>
     </row>
     <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54">
         <f>AC30</f>
         <v>7040000</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="12" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="55">
         <f>E10</f>
         <v>7040000</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="73" t="s">
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="22" t="s">
+      <c r="T10" s="53"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="22" t="s">
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="39"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="28"/>
     </row>
     <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="20" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20" t="s">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20" t="s">
+      <c r="S11" s="26"/>
+      <c r="T11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="66" t="s">
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="20" t="s">
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="21"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
     </row>
     <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="26">
         <v>1</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="59" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26">
         <v>200</v>
       </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="61">
+      <c r="S12" s="26"/>
+      <c r="T12" s="32">
         <v>21000</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62">
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32">
         <f>T12*0.1</f>
         <v>2100</v>
       </c>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="61">
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32">
         <f>(T12+X12)*R12</f>
         <v>4620000</v>
       </c>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="65"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
     </row>
     <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="26">
         <v>2</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26">
         <v>200</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="51">
+      <c r="S13" s="26"/>
+      <c r="T13" s="32">
         <v>11000</v>
       </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="62">
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32">
         <f t="shared" ref="X13:X15" si="0">T13*0.1</f>
         <v>1100</v>
       </c>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="61">
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32">
         <f t="shared" ref="AC13:AC15" si="1">(T13+X13)*R13</f>
         <v>2420000</v>
       </c>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="65"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
     </row>
     <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="58">
+      <c r="A14" s="26">
         <v>3</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="65"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
     </row>
     <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="58">
+      <c r="A15" s="26">
         <v>4</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="65"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
     </row>
     <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="58">
+      <c r="A16" s="26">
         <v>5</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="55"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
     </row>
     <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="58">
+      <c r="A17" s="26">
         <v>6</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="55"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
     </row>
     <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="58">
+      <c r="A18" s="26">
         <v>7</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="55"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
     </row>
     <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="58">
+      <c r="A19" s="26">
         <v>8</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="55"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
     </row>
     <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="58">
+      <c r="A20" s="26">
         <v>9</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="55"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
     </row>
     <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="58">
+      <c r="A21" s="26">
         <v>10</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="55"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
     </row>
     <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="58">
+      <c r="A22" s="26">
         <v>11</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="55"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
     </row>
     <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="58">
+      <c r="A23" s="26">
         <v>12</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="55"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
     </row>
     <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="55"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
     </row>
     <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="55"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="55"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
     </row>
     <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="55"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
     </row>
     <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="55"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
     </row>
     <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="44"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
     </row>
     <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="24">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="32">
         <f>SUM(AC12:AF29)</f>
         <v>7040000</v>
       </c>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="21"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
     </row>
     <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="22" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="45" t="str">
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="31" t="str">
         <f>" "&amp;C6</f>
         <v xml:space="preserve"> 거래처명</v>
       </c>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="48"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
     </row>
     <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="19" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19" t="s">
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
     </row>
     <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="32" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="34"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="22"/>
     </row>
     <row r="34" spans="1:32" ht="20.25" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="35" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="37"/>
-    </row>
-    <row r="40" spans="1:32" s="17" customFormat="1" ht="14.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="25"/>
+    </row>
+    <row r="40" spans="1:32" s="10" customFormat="1" ht="14.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:32" ht="14.25"/>
     <row r="42" spans="1:32" ht="14.25"/>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="194">
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
     <mergeCell ref="A30:AB30"/>
-    <mergeCell ref="O5:R5"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="A1:AF3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:W4"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="AB4:AF4"/>
     <mergeCell ref="S5:AF5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="O8:R8"/>
     <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="S8:W8"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="A9:AF9"/>
@@ -3554,11 +3218,8 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:R10"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="S7:W7"/>
     <mergeCell ref="X7:AA7"/>
     <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="X11:AB11"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="A12:B12"/>
@@ -3687,7 +3348,6 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:W25"/>
-    <mergeCell ref="AC27:AF27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="L28:O28"/>
@@ -3725,6 +3385,7 @@
     <mergeCell ref="E31:O31"/>
     <mergeCell ref="X32:AB32"/>
     <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC27:AF27"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/ex/견적서.xlsx
+++ b/ex/견적서.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29602"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64D68E3-51D1-48C7-837D-8BBBB5AD1853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A240FE-EE61-4233-8579-A474B7A44869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1052,26 +1052,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1095,6 +1075,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1233,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1276,22 +1313,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,9 +1457,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,120 +1467,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1848,7 +1894,7 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:AF5"/>
+      <selection activeCell="N4" sqref="N4:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.5"/>
@@ -1870,108 +1916,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="30"/>
     </row>
     <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="42"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="45"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1"/>
@@ -1986,14 +2032,14 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="67" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="15"/>
@@ -2001,20 +2047,20 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="48" t="str">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38" t="str">
         <f>LEFT(R4,10)</f>
         <v xml:space="preserve"> 2025-0912</v>
       </c>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
@@ -2029,76 +2075,76 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="71"/>
+      <c r="N5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="67" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="68"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="40"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="34" t="s">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="66" t="s">
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
@@ -2113,160 +2159,160 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62" t="s">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="35" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="36" t="s">
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
     </row>
     <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="18" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="62" t="s">
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="47" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
     </row>
     <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="51"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="45"/>
     </row>
     <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48">
         <f>AC30</f>
         <v>7040000</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="49">
         <f>E10</f>
         <v>7040000</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="53" t="s">
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="53"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="54" t="s">
         <v>23</v>
       </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="14" t="s">
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="28"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="63"/>
     </row>
     <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="26" t="s">
@@ -2323,17 +2369,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="26" t="s">
         <v>34</v>
       </c>
@@ -2346,21 +2392,21 @@
         <v>200</v>
       </c>
       <c r="S12" s="26"/>
-      <c r="T12" s="32">
+      <c r="T12" s="53">
         <v>21000</v>
       </c>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32">
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53">
         <f>T12*0.1</f>
         <v>2100</v>
       </c>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32">
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53">
         <f>(T12+X12)*R12</f>
         <v>4620000</v>
       </c>
@@ -2373,17 +2419,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -2394,21 +2440,21 @@
         <v>200</v>
       </c>
       <c r="S13" s="26"/>
-      <c r="T13" s="32">
+      <c r="T13" s="53">
         <v>11000</v>
       </c>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32">
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53">
         <f t="shared" ref="X13:X15" si="0">T13*0.1</f>
         <v>1100</v>
       </c>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32">
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53">
         <f t="shared" ref="AC13:AC15" si="1">(T13+X13)*R13</f>
         <v>2420000</v>
       </c>
@@ -2421,15 +2467,15 @@
         <v>3</v>
       </c>
       <c r="B14" s="26"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -2438,16 +2484,16 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26"/>
@@ -2457,15 +2503,15 @@
         <v>4</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -2474,16 +2520,16 @@
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26"/>
@@ -2493,15 +2539,15 @@
         <v>5</v>
       </c>
       <c r="B16" s="26"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -2510,15 +2556,15 @@
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
@@ -2529,15 +2575,15 @@
         <v>6</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
@@ -2546,15 +2592,15 @@
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="26"/>
@@ -2565,15 +2611,15 @@
         <v>7</v>
       </c>
       <c r="B18" s="26"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -2582,15 +2628,15 @@
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
@@ -2601,15 +2647,15 @@
         <v>8</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -2618,15 +2664,15 @@
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -2637,15 +2683,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="26"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -2654,15 +2700,15 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
@@ -2673,15 +2719,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
@@ -2690,15 +2736,15 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
@@ -2709,15 +2755,15 @@
         <v>11</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
@@ -2726,15 +2772,15 @@
       <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
@@ -2745,15 +2791,15 @@
         <v>12</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -2762,15 +2808,15 @@
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
@@ -2779,15 +2825,15 @@
     <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
@@ -2796,15 +2842,15 @@
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
@@ -2813,15 +2859,15 @@
     <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
@@ -2830,15 +2876,15 @@
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
@@ -2847,15 +2893,15 @@
     <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
@@ -2864,15 +2910,15 @@
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
@@ -2881,15 +2927,15 @@
     <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
@@ -2898,15 +2944,15 @@
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
@@ -2915,15 +2961,15 @@
     <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
@@ -2932,53 +2978,53 @@
       <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
     </row>
     <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
     </row>
     <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="26" t="s">
@@ -3011,7 +3057,7 @@
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="32">
+      <c r="AC30" s="53">
         <f>SUM(AC12:AF29)</f>
         <v>7040000</v>
       </c>
@@ -3045,138 +3091,138 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
-      <c r="T31" s="31" t="str">
+      <c r="T31" s="52" t="str">
         <f>" "&amp;C6</f>
         <v xml:space="preserve"> 거래처명</v>
       </c>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
     </row>
     <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34" t="s">
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
     </row>
     <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="54" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="22"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="58"/>
     </row>
     <row r="34" spans="1:32" ht="20.25" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="23" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="25"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="61"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="14.25">
       <c r="A40" s="9"/>
@@ -3192,16 +3238,166 @@
     <row r="42" spans="1:32" ht="14.25"/>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:AF33"/>
+    <mergeCell ref="E34:AF34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="X29:AB29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T31:AF31"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="E32:W32"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E31:O31"/>
+    <mergeCell ref="X32:AB32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:W11"/>
     <mergeCell ref="A30:AB30"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="A1:AF3"/>
@@ -3226,166 +3422,16 @@
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:AF33"/>
-    <mergeCell ref="E34:AF34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="X29:AB29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:AF31"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="E32:W32"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="X32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/ex/견적서.xlsx
+++ b/ex/견적서.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29602"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A240FE-EE61-4233-8579-A474B7A44869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79D173D-C4EC-4C3F-A7D0-521A1551B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,12 @@
     <t>견       적       서</t>
   </si>
   <si>
+    <t>거래처명</t>
+  </si>
+  <si>
+    <t>귀하</t>
+  </si>
+  <si>
     <t>견적번호</t>
   </si>
   <si>
@@ -51,12 +57,6 @@
   <si>
     <t xml:space="preserve"> 하비 브라운</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래처명</t>
-  </si>
-  <si>
-    <t>귀하</t>
   </si>
   <si>
     <t>등록번호</t>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -913,6 +913,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -921,9 +936,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -936,24 +949,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -961,14 +957,12 @@
         <color indexed="9"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -981,73 +975,43 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1019,86 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,68 +1107,66 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </top>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,89 +1308,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,18 +1429,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1409,16 +1438,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,50 +1456,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,11 +1495,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1893,1351 +1922,1520 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="3" style="8" customWidth="1"/>
-    <col min="11" max="11" width="0.109375" style="8" customWidth="1"/>
-    <col min="12" max="14" width="3" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="22" width="3" style="8" customWidth="1"/>
-    <col min="23" max="23" width="0.33203125" style="8" customWidth="1"/>
-    <col min="24" max="25" width="3" style="8" customWidth="1"/>
-    <col min="26" max="26" width="3" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="3" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.21875" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="3" style="8" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" style="8" customWidth="1"/>
-    <col min="33" max="256" width="3" style="8" customWidth="1"/>
-    <col min="257" max="16384" width="8.77734375" style="8"/>
+    <col min="1" max="10" width="3" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="3" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="22" width="3" style="1" customWidth="1"/>
+    <col min="23" max="23" width="0.33203125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="3" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="3" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="3" style="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" style="1" customWidth="1"/>
+    <col min="33" max="256" width="3" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="31"/>
     </row>
     <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="37"/>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="67" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="23" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="37" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="38" t="str">
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39" t="str">
         <f>LEFT(R4,10)</f>
         <v xml:space="preserve"> 2025-0912</v>
       </c>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="40"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="68"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="68" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="23" t="s">
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="42" t="s">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="27" t="s">
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="68" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="23" t="s">
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="50" t="s">
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51" t="s">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="69" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="23" t="s">
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="37" t="s">
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
     </row>
     <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="45"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45">
         <f>AC30</f>
         <v>7040000</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="11" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="46">
         <f>E10</f>
         <v>7040000</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="47" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="54" t="s">
+      <c r="T10" s="44"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="54" t="s">
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="63"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="21"/>
     </row>
     <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26" t="s">
+      <c r="S11" s="19"/>
+      <c r="T11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26" t="s">
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26" t="s">
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
     </row>
     <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="26" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19">
         <v>200</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="53">
+      <c r="S12" s="19"/>
+      <c r="T12" s="25">
         <v>21000</v>
       </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53">
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25">
         <f>T12*0.1</f>
         <v>2100</v>
       </c>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53">
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25">
         <f>(T12+X12)*R12</f>
         <v>4620000</v>
       </c>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
     </row>
     <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19">
         <v>200</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="53">
+      <c r="S13" s="19"/>
+      <c r="T13" s="25">
         <v>11000</v>
       </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53">
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25">
         <f t="shared" ref="X13:X15" si="0">T13*0.1</f>
         <v>1100</v>
       </c>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53">
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25">
         <f t="shared" ref="AC13:AC15" si="1">(T13+X13)*R13</f>
         <v>2420000</v>
       </c>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
     </row>
     <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="19">
         <v>3</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
     </row>
     <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="19">
         <v>4</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
     </row>
     <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
     </row>
     <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="26">
+      <c r="A17" s="19">
         <v>6</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
     </row>
     <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="26">
+      <c r="A18" s="19">
         <v>7</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
     </row>
     <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="26">
+      <c r="A19" s="19">
         <v>8</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
     </row>
     <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
     </row>
     <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="19">
         <v>10</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
     </row>
     <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="26">
+      <c r="A22" s="19">
         <v>11</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
     </row>
     <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="26">
+      <c r="A23" s="19">
         <v>12</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
     </row>
     <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
     </row>
     <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
     </row>
     <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
     </row>
     <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
     </row>
     <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
     </row>
     <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
     </row>
     <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="53">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="25">
         <f>SUM(AC12:AF29)</f>
         <v>7040000</v>
       </c>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
     </row>
     <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="52" t="str">
-        <f>" "&amp;C6</f>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19" t="str">
+        <f>" "&amp;A4</f>
         <v xml:space="preserve"> 거래처명</v>
       </c>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
     </row>
     <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="42" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42" t="s">
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
     </row>
     <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="56" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="15"/>
     </row>
     <row r="34" spans="1:32" ht="20.25" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="59" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="61"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="18"/>
     </row>
-    <row r="40" spans="1:32" s="10" customFormat="1" ht="14.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+    <row r="40" spans="1:32" s="3" customFormat="1" ht="14.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:32" ht="14.25"/>
     <row r="42" spans="1:32" ht="14.25"/>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="193">
+    <mergeCell ref="K4:M8"/>
+    <mergeCell ref="A4:J8"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R5:AF5"/>
+    <mergeCell ref="A30:AB30"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="A1:AF3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:W27"/>
     <mergeCell ref="A33:D34"/>
     <mergeCell ref="E33:AF33"/>
     <mergeCell ref="E34:AF34"/>
@@ -3262,176 +3460,6 @@
     <mergeCell ref="X32:AB32"/>
     <mergeCell ref="AC32:AF32"/>
     <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="A30:AB30"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="A1:AF3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="S5:AF5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="A9:AF9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
